--- a/dataFiles/test/bateau/bateau_5_MIL.xlsx
+++ b/dataFiles/test/bateau/bateau_5_MIL.xlsx
@@ -145,28 +145,28 @@
     <t>(1034, 346, 75, 127)</t>
   </si>
   <si>
-    <t>(251, 85, 238)</t>
-  </si>
-  <si>
-    <t>(247, 135, 193)</t>
-  </si>
-  <si>
-    <t>(63, 55, 34)</t>
-  </si>
-  <si>
-    <t>(44, 167, 146)</t>
-  </si>
-  <si>
-    <t>(255, 123, 252)</t>
-  </si>
-  <si>
-    <t>(186, 245, 73)</t>
-  </si>
-  <si>
-    <t>(34, 90, 28)</t>
-  </si>
-  <si>
-    <t>(205, 138, 107)</t>
+    <t>(100, 94, 50)</t>
+  </si>
+  <si>
+    <t>(222, 139, 30)</t>
+  </si>
+  <si>
+    <t>(146, 160, 207)</t>
+  </si>
+  <si>
+    <t>(192, 20, 87)</t>
+  </si>
+  <si>
+    <t>(236, 228, 13)</t>
+  </si>
+  <si>
+    <t>(81, 34, 214)</t>
+  </si>
+  <si>
+    <t>(69, 232, 102)</t>
+  </si>
+  <si>
+    <t>(60, 48, 209)</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>43</v>
       </c>
       <c r="M2">
-        <v>19.32</v>
+        <v>19.03</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>44</v>
       </c>
       <c r="M3">
-        <v>19.41</v>
+        <v>19.1</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>45</v>
       </c>
       <c r="M4">
-        <v>19.51</v>
+        <v>19.19</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>46</v>
       </c>
       <c r="M5">
-        <v>19.48</v>
+        <v>19.16</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>47</v>
       </c>
       <c r="M6">
-        <v>20.27</v>
+        <v>19.91</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>48</v>
       </c>
       <c r="M7">
-        <v>19.52</v>
+        <v>19.28</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>49</v>
       </c>
       <c r="M8">
-        <v>19.44</v>
+        <v>19.12</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>50</v>
       </c>
       <c r="M9">
-        <v>19.59</v>
+        <v>19.27</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
